--- a/artfynd/A 33544-2021.xlsx
+++ b/artfynd/A 33544-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104023398</v>
+        <v>104023416</v>
       </c>
       <c r="B2" t="n">
         <v>78569</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>543928.1404005223</v>
+        <v>543743.4593651614</v>
       </c>
       <c r="R2" t="n">
-        <v>7094070.257953409</v>
+        <v>7094441.509715242</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>08:25</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>08:25</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -779,7 +779,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Sälg</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104023416</v>
+        <v>104023407</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>78458</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +813,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6457</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dvärgtufs</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Scytinium teretiusculum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Wallr.) Otálora et al.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>543743.4593651614</v>
+        <v>543798.3199733114</v>
       </c>
       <c r="R3" t="n">
-        <v>7094441.509715242</v>
+        <v>7094387.369215799</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>08:25</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>08:25</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104023407</v>
+        <v>104023398</v>
       </c>
       <c r="B4" t="n">
-        <v>78458</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,25 +934,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6457</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dvärgtufs</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Scytinium teretiusculum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Wallr.) Otálora et al.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>543798.3199733114</v>
+        <v>543928.1404005223</v>
       </c>
       <c r="R4" t="n">
-        <v>7094387.369215799</v>
+        <v>7094070.257953409</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -997,7 +997,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>

--- a/artfynd/A 33544-2021.xlsx
+++ b/artfynd/A 33544-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104023416</v>
+        <v>104023398</v>
       </c>
       <c r="B2" t="n">
         <v>78569</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>543743.4593651614</v>
+        <v>543928.1404005223</v>
       </c>
       <c r="R2" t="n">
-        <v>7094441.509715242</v>
+        <v>7094070.257953409</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>08:25</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>08:25</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -779,7 +779,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104023407</v>
+        <v>104023416</v>
       </c>
       <c r="B3" t="n">
-        <v>78458</v>
+        <v>78569</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +813,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6457</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dvärgtufs</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Scytinium teretiusculum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Wallr.) Otálora et al.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>543798.3199733114</v>
+        <v>543743.4593651614</v>
       </c>
       <c r="R3" t="n">
-        <v>7094387.369215799</v>
+        <v>7094441.509715242</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>08:25</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>08:25</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104023398</v>
+        <v>104023407</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>78458</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,25 +934,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>6457</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dvärgtufs</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Scytinium teretiusculum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Wallr.) Otálora et al.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>543928.1404005223</v>
+        <v>543798.3199733114</v>
       </c>
       <c r="R4" t="n">
-        <v>7094070.257953409</v>
+        <v>7094387.369215799</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -997,7 +997,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Sälg</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
